--- a/Assets/Scripts/Data/StageDB.xlsx
+++ b/Assets/Scripts/Data/StageDB.xlsx
@@ -3,25 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\UnityProject\BeaverTheDam\Assets\Scripts\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D666CC7B-B60F-4CAA-8002-DD180FDE7ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="4110" windowWidth="21600" windowHeight="11295" xr2:uid="{F2F57B57-517C-494E-BF54-B4942FB50806}"/>
+    <workbookView xWindow="1950" yWindow="1710" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Entites" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
+    <ext uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures">
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
@@ -36,90 +30,98 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
-  <si>
-    <t>limit_type</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+  <si>
+    <t xml:space="preserve">limit_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>first_limit</t>
+    <t xml:space="preserve">first_limit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>second_limit</t>
+    <t xml:space="preserve">second_limit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>STAGE_1</t>
+    <t xml:space="preserve">STAGE_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>STAGE_2</t>
-  </si>
-  <si>
-    <t>STAGE_3</t>
-  </si>
-  <si>
-    <t>STAGE_4</t>
-  </si>
-  <si>
-    <t>STAGE_5</t>
-  </si>
-  <si>
-    <t>STAGE_6</t>
-  </si>
-  <si>
-    <t>STAGE_7</t>
-  </si>
-  <si>
-    <t>STAGE_8</t>
-  </si>
-  <si>
-    <t>STAGE_9</t>
-  </si>
-  <si>
-    <t>STAGE_10</t>
-  </si>
-  <si>
-    <t>STAGE_11</t>
-  </si>
-  <si>
-    <t>STAGE_12</t>
-  </si>
-  <si>
-    <t>STAGE_13</t>
-  </si>
-  <si>
-    <t>STAGE_14</t>
-  </si>
-  <si>
-    <t>STAGE_15</t>
-  </si>
-  <si>
-    <t>time</t>
+    <t xml:space="preserve">STAGE_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>count</t>
+    <t xml:space="preserve">count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stars</t>
+    <t xml:space="preserve">stars</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>branch</t>
+    <t xml:space="preserve">branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>limit_amount</t>
+    <t xml:space="preserve">limit_amount</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -155,7 +157,7 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -173,11 +175,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -471,7 +473,7 @@
   <a:objectDefaults>
     <a:lnDef>
       <a:spPr/>
-      <a:bodyPr/>
+      <a:bodyPr rtlCol="0"/>
       <a:lstStyle/>
       <a:style>
         <a:lnRef idx="2">
@@ -499,11 +501,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB69EE8-08DB-4014-A32F-5599E185C665}">
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -511,7 +513,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -530,8 +532,11 @@
       <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -550,8 +555,11 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -570,8 +578,11 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -590,8 +601,11 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -610,8 +624,11 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -630,8 +647,11 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -650,8 +670,11 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -670,8 +693,11 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -690,8 +716,11 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -710,8 +739,11 @@
       <c r="F10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -730,8 +762,11 @@
       <c r="F11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -750,8 +785,11 @@
       <c r="F12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -770,8 +808,11 @@
       <c r="F13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -790,8 +831,11 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -810,8 +854,11 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -828,6 +875,9 @@
         <v>10</v>
       </c>
       <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Scripts/Data/StageDB.xlsx
+++ b/Assets/Scripts/Data/StageDB.xlsx
@@ -3,19 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\UnityProject\BeaverTheDam\Assets\Scripts\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DE764F-7A36-4EBB-B8C3-E3A6F5C2C000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1710" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="4110" yWindow="4110" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entites" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures">
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
@@ -30,98 +36,94 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
-  <si>
-    <t xml:space="preserve">limit_type</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+  <si>
+    <t>limit_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">first_limit</t>
+    <t>first_limit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">second_limit</t>
+    <t>second_limit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">STAGE_1</t>
+    <t>STAGE_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">STAGE_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time</t>
+    <t>STAGE_2</t>
+  </si>
+  <si>
+    <t>STAGE_3</t>
+  </si>
+  <si>
+    <t>STAGE_4</t>
+  </si>
+  <si>
+    <t>STAGE_5</t>
+  </si>
+  <si>
+    <t>STAGE_6</t>
+  </si>
+  <si>
+    <t>STAGE_7</t>
+  </si>
+  <si>
+    <t>STAGE_8</t>
+  </si>
+  <si>
+    <t>STAGE_9</t>
+  </si>
+  <si>
+    <t>STAGE_10</t>
+  </si>
+  <si>
+    <t>STAGE_11</t>
+  </si>
+  <si>
+    <t>STAGE_12</t>
+  </si>
+  <si>
+    <t>STAGE_13</t>
+  </si>
+  <si>
+    <t>STAGE_14</t>
+  </si>
+  <si>
+    <t>STAGE_15</t>
+  </si>
+  <si>
+    <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">count</t>
+    <t>count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">stars</t>
+    <t>stars</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">branch</t>
+    <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">limit_amount</t>
+    <t>limit_amount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">clear</t>
+    <t>clear</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">TRUE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,7 +159,7 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -175,11 +177,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -473,7 +475,7 @@
   <a:objectDefaults>
     <a:lnDef>
       <a:spPr/>
-      <a:bodyPr rtlCol="0"/>
+      <a:bodyPr/>
       <a:lstStyle/>
       <a:style>
         <a:lnRef idx="2">
@@ -501,11 +503,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -555,8 +557,8 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
+      <c r="G2" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -636,7 +638,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="1">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D6" s="1">
         <v>20</v>
@@ -884,6 +886,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Assets/Scripts/Data/StageDB.xlsx
+++ b/Assets/Scripts/Data/StageDB.xlsx
@@ -3,25 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\UnityProject\BeaverTheDam\Assets\Scripts\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DE764F-7A36-4EBB-B8C3-E3A6F5C2C000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="4110" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1710" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Entites" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
+    <ext uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures">
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
@@ -36,94 +30,98 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
-  <si>
-    <t>limit_type</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+  <si>
+    <t xml:space="preserve">limit_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>first_limit</t>
+    <t xml:space="preserve">first_limit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>second_limit</t>
+    <t xml:space="preserve">second_limit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>STAGE_1</t>
+    <t xml:space="preserve">STAGE_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>STAGE_2</t>
-  </si>
-  <si>
-    <t>STAGE_3</t>
-  </si>
-  <si>
-    <t>STAGE_4</t>
-  </si>
-  <si>
-    <t>STAGE_5</t>
-  </si>
-  <si>
-    <t>STAGE_6</t>
-  </si>
-  <si>
-    <t>STAGE_7</t>
-  </si>
-  <si>
-    <t>STAGE_8</t>
-  </si>
-  <si>
-    <t>STAGE_9</t>
-  </si>
-  <si>
-    <t>STAGE_10</t>
-  </si>
-  <si>
-    <t>STAGE_11</t>
-  </si>
-  <si>
-    <t>STAGE_12</t>
-  </si>
-  <si>
-    <t>STAGE_13</t>
-  </si>
-  <si>
-    <t>STAGE_14</t>
-  </si>
-  <si>
-    <t>STAGE_15</t>
-  </si>
-  <si>
-    <t>time</t>
+    <t xml:space="preserve">STAGE_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>count</t>
+    <t xml:space="preserve">count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stars</t>
+    <t xml:space="preserve">stars</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>branch</t>
+    <t xml:space="preserve">branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>limit_amount</t>
+    <t xml:space="preserve">limit_amount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>clear</t>
+    <t xml:space="preserve">clear</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -159,7 +157,7 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -177,11 +175,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -475,7 +473,7 @@
   <a:objectDefaults>
     <a:lnDef>
       <a:spPr/>
-      <a:bodyPr/>
+      <a:bodyPr rtlCol="0"/>
       <a:lstStyle/>
       <a:style>
         <a:lnRef idx="2">
@@ -503,11 +501,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -546,7 +544,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1">
         <v>20</v>
@@ -557,8 +555,8 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="b">
-        <v>0</v>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -569,7 +567,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1">
         <v>20</v>
@@ -592,7 +590,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1">
         <v>20</v>
@@ -615,7 +613,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1">
         <v>20</v>
@@ -638,7 +636,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="1">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="D6" s="1">
         <v>20</v>
@@ -661,7 +659,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1">
         <v>20</v>
@@ -684,7 +682,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1">
         <v>20</v>
@@ -707,7 +705,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -730,7 +728,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1">
         <v>20</v>
@@ -753,7 +751,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1">
         <v>20</v>
@@ -776,7 +774,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1">
         <v>20</v>
@@ -799,7 +797,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1">
         <v>20</v>
@@ -822,7 +820,7 @@
         <v>18</v>
       </c>
       <c r="C14" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1">
         <v>20</v>
@@ -845,7 +843,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1">
         <v>20</v>
@@ -868,7 +866,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1">
         <v>20</v>
@@ -891,9 +889,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1055,26 +1056,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57A7541A-7BC3-4429-8A31-B85A7B34A599}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C48237F2-ECB2-4EB1-868A-271DCD107F71}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="eae9b4aa-a722-474c-b4c5-014258ccd352"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1098,9 +1088,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C48237F2-ECB2-4EB1-868A-271DCD107F71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57A7541A-7BC3-4429-8A31-B85A7B34A599}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="eae9b4aa-a722-474c-b4c5-014258ccd352"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Assets/Scripts/Data/StageDB.xlsx
+++ b/Assets/Scripts/Data/StageDB.xlsx
@@ -3,19 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\UnityProject\BeaverTheDam\Assets\Scripts\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2577ED4C-0EB6-4B44-8344-468407B5476A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1710" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entites" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures">
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
@@ -30,98 +36,94 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
-  <si>
-    <t xml:space="preserve">limit_type</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+  <si>
+    <t>limit_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">first_limit</t>
+    <t>first_limit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">second_limit</t>
+    <t>second_limit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">STAGE_1</t>
+    <t>STAGE_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">STAGE_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time</t>
+    <t>STAGE_2</t>
+  </si>
+  <si>
+    <t>STAGE_3</t>
+  </si>
+  <si>
+    <t>STAGE_4</t>
+  </si>
+  <si>
+    <t>STAGE_5</t>
+  </si>
+  <si>
+    <t>STAGE_6</t>
+  </si>
+  <si>
+    <t>STAGE_7</t>
+  </si>
+  <si>
+    <t>STAGE_8</t>
+  </si>
+  <si>
+    <t>STAGE_9</t>
+  </si>
+  <si>
+    <t>STAGE_10</t>
+  </si>
+  <si>
+    <t>STAGE_11</t>
+  </si>
+  <si>
+    <t>STAGE_12</t>
+  </si>
+  <si>
+    <t>STAGE_13</t>
+  </si>
+  <si>
+    <t>STAGE_14</t>
+  </si>
+  <si>
+    <t>STAGE_15</t>
+  </si>
+  <si>
+    <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">count</t>
+    <t>count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">stars</t>
+    <t>stars</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">branch</t>
+    <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">limit_amount</t>
+    <t>limit_amount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">clear</t>
+    <t>clear</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">TRUE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,7 +159,7 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -175,11 +177,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -473,7 +475,7 @@
   <a:objectDefaults>
     <a:lnDef>
       <a:spPr/>
-      <a:bodyPr rtlCol="0"/>
+      <a:bodyPr/>
       <a:lstStyle/>
       <a:style>
         <a:lnRef idx="2">
@@ -501,11 +503,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -555,8 +557,8 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
+      <c r="G2" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -579,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -602,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -625,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -648,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -889,12 +891,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1056,15 +1055,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C48237F2-ECB2-4EB1-868A-271DCD107F71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57A7541A-7BC3-4429-8A31-B85A7B34A599}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="eae9b4aa-a722-474c-b4c5-014258ccd352"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1088,17 +1098,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57A7541A-7BC3-4429-8A31-B85A7B34A599}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C48237F2-ECB2-4EB1-868A-271DCD107F71}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="eae9b4aa-a722-474c-b4c5-014258ccd352"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Assets/Scripts/Data/StageDB.xlsx
+++ b/Assets/Scripts/Data/StageDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\UnityProject\BeaverTheDam\Assets\Scripts\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2577ED4C-0EB6-4B44-8344-468407B5476A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27212606-88DB-484E-BC9E-8CEDF11670B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1710" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entites" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>limit_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +118,9 @@
   <si>
     <t>clear</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE</t>
   </si>
 </sst>
 </file>
@@ -506,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -603,8 +606,8 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="b">
-        <v>1</v>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -626,8 +629,8 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1" t="b">
-        <v>1</v>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -649,8 +652,8 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="1" t="b">
-        <v>1</v>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">

--- a/Assets/Scripts/Data/StageDB.xlsx
+++ b/Assets/Scripts/Data/StageDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\UnityProject\BeaverTheDam\Assets\Scripts\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27212606-88DB-484E-BC9E-8CEDF11670B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E11FAF4-0E42-47DF-8A75-5E83965C608B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1710" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entites" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>limit_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,9 +118,6 @@
   <si>
     <t>clear</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRUE</t>
   </si>
 </sst>
 </file>
@@ -509,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -561,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -584,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -606,8 +603,8 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
+      <c r="G4" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -629,8 +626,8 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
+      <c r="G5" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -652,8 +649,8 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>24</v>
+      <c r="G6" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">

--- a/Assets/Scripts/Data/StageDB.xlsx
+++ b/Assets/Scripts/Data/StageDB.xlsx
@@ -3,25 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\UnityProject\BeaverTheDam\Assets\Scripts\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E11FAF4-0E42-47DF-8A75-5E83965C608B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Entites" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
+    <ext uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures">
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
@@ -36,94 +30,98 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
-  <si>
-    <t>limit_type</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+  <si>
+    <t xml:space="preserve">limit_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>first_limit</t>
+    <t xml:space="preserve">first_limit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>second_limit</t>
+    <t xml:space="preserve">second_limit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>STAGE_1</t>
+    <t xml:space="preserve">STAGE_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>STAGE_2</t>
-  </si>
-  <si>
-    <t>STAGE_3</t>
-  </si>
-  <si>
-    <t>STAGE_4</t>
-  </si>
-  <si>
-    <t>STAGE_5</t>
-  </si>
-  <si>
-    <t>STAGE_6</t>
-  </si>
-  <si>
-    <t>STAGE_7</t>
-  </si>
-  <si>
-    <t>STAGE_8</t>
-  </si>
-  <si>
-    <t>STAGE_9</t>
-  </si>
-  <si>
-    <t>STAGE_10</t>
-  </si>
-  <si>
-    <t>STAGE_11</t>
-  </si>
-  <si>
-    <t>STAGE_12</t>
-  </si>
-  <si>
-    <t>STAGE_13</t>
-  </si>
-  <si>
-    <t>STAGE_14</t>
-  </si>
-  <si>
-    <t>STAGE_15</t>
-  </si>
-  <si>
-    <t>time</t>
+    <t xml:space="preserve">STAGE_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>count</t>
+    <t xml:space="preserve">count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stars</t>
+    <t xml:space="preserve">stars</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>branch</t>
+    <t xml:space="preserve">branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>limit_amount</t>
+    <t xml:space="preserve">limit_amount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>clear</t>
+    <t xml:space="preserve">clear</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -159,7 +157,7 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -177,11 +175,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -475,7 +473,7 @@
   <a:objectDefaults>
     <a:lnDef>
       <a:spPr/>
-      <a:bodyPr/>
+      <a:bodyPr rtlCol="0"/>
       <a:lstStyle/>
       <a:style>
         <a:lnRef idx="2">
@@ -503,7 +501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -557,8 +555,8 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="b">
-        <v>0</v>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -580,8 +578,8 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="b">
-        <v>0</v>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -603,8 +601,8 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="b">
-        <v>0</v>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">

--- a/Assets/Scripts/Data/StageDB.xlsx
+++ b/Assets/Scripts/Data/StageDB.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t xml:space="preserve">limit_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G6"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -555,8 +555,8 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
+      <c r="G2" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -578,8 +578,8 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -601,8 +601,8 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -624,8 +624,8 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1" t="b">
-        <v>0</v>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Scripts/Data/StageDB.xlsx
+++ b/Assets/Scripts/Data/StageDB.xlsx
@@ -3,19 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\UnityProject\BeaverTheDam\Assets\Scripts\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5B39A7-8655-4950-A98F-06B6131DBA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entites" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures">
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
@@ -30,98 +36,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
-  <si>
-    <t xml:space="preserve">limit_type</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+  <si>
+    <t>limit_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">first_limit</t>
+    <t>first_limit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">second_limit</t>
+    <t>second_limit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">STAGE_1</t>
+    <t>STAGE_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">STAGE_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time</t>
+    <t>STAGE_2</t>
+  </si>
+  <si>
+    <t>STAGE_3</t>
+  </si>
+  <si>
+    <t>STAGE_4</t>
+  </si>
+  <si>
+    <t>STAGE_5</t>
+  </si>
+  <si>
+    <t>STAGE_6</t>
+  </si>
+  <si>
+    <t>STAGE_7</t>
+  </si>
+  <si>
+    <t>STAGE_8</t>
+  </si>
+  <si>
+    <t>STAGE_9</t>
+  </si>
+  <si>
+    <t>STAGE_10</t>
+  </si>
+  <si>
+    <t>STAGE_11</t>
+  </si>
+  <si>
+    <t>STAGE_12</t>
+  </si>
+  <si>
+    <t>STAGE_13</t>
+  </si>
+  <si>
+    <t>STAGE_14</t>
+  </si>
+  <si>
+    <t>STAGE_15</t>
+  </si>
+  <si>
+    <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">count</t>
+    <t>count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">stars</t>
+    <t>stars</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">branch</t>
+    <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">limit_amount</t>
+    <t>limit_amount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">clear</t>
+    <t>clear</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">TRUE</t>
+    <t>TRUE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,7 +162,7 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -175,11 +180,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -473,7 +478,7 @@
   <a:objectDefaults>
     <a:lnDef>
       <a:spPr/>
-      <a:bodyPr rtlCol="0"/>
+      <a:bodyPr/>
       <a:lstStyle/>
       <a:style>
         <a:lnRef idx="2">
@@ -501,11 +506,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -555,8 +560,8 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="b">
-        <v>1</v>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -670,8 +675,8 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="1" t="b">
-        <v>1</v>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -682,7 +687,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1">
         <v>20</v>

--- a/Assets/Scripts/Data/StageDB.xlsx
+++ b/Assets/Scripts/Data/StageDB.xlsx
@@ -3,25 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\UnityProject\BeaverTheDam\Assets\Scripts\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5B39A7-8655-4950-A98F-06B6131DBA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Entites" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
+    <ext uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures">
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
@@ -36,97 +30,98 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
-  <si>
-    <t>limit_type</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+  <si>
+    <t xml:space="preserve">limit_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>first_limit</t>
+    <t xml:space="preserve">first_limit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>second_limit</t>
+    <t xml:space="preserve">second_limit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>STAGE_1</t>
+    <t xml:space="preserve">STAGE_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>STAGE_2</t>
-  </si>
-  <si>
-    <t>STAGE_3</t>
-  </si>
-  <si>
-    <t>STAGE_4</t>
-  </si>
-  <si>
-    <t>STAGE_5</t>
-  </si>
-  <si>
-    <t>STAGE_6</t>
-  </si>
-  <si>
-    <t>STAGE_7</t>
-  </si>
-  <si>
-    <t>STAGE_8</t>
-  </si>
-  <si>
-    <t>STAGE_9</t>
-  </si>
-  <si>
-    <t>STAGE_10</t>
-  </si>
-  <si>
-    <t>STAGE_11</t>
-  </si>
-  <si>
-    <t>STAGE_12</t>
-  </si>
-  <si>
-    <t>STAGE_13</t>
-  </si>
-  <si>
-    <t>STAGE_14</t>
-  </si>
-  <si>
-    <t>STAGE_15</t>
-  </si>
-  <si>
-    <t>time</t>
+    <t xml:space="preserve">STAGE_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAGE_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>count</t>
+    <t xml:space="preserve">count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stars</t>
+    <t xml:space="preserve">stars</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>branch</t>
+    <t xml:space="preserve">branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>limit_amount</t>
+    <t xml:space="preserve">limit_amount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>clear</t>
+    <t xml:space="preserve">clear</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TRUE</t>
+    <t xml:space="preserve">TRUE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,7 +157,7 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -180,11 +175,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -478,7 +473,7 @@
   <a:objectDefaults>
     <a:lnDef>
       <a:spPr/>
-      <a:bodyPr/>
+      <a:bodyPr rtlCol="0"/>
       <a:lstStyle/>
       <a:style>
         <a:lnRef idx="2">
@@ -506,7 +501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
